--- a/1 Hardware/MCP33151 Eval Board/Project Outputs for MCP33151 Eval Board/BOM - MCP33151 Eval Board.xlsx
+++ b/1 Hardware/MCP33151 Eval Board/Project Outputs for MCP33151 Eval Board/BOM - MCP33151 Eval Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Desktop\ecse478_honours_thesis\1 Hardware\MCP33151 Eval Board\Project Outputs for MCP33151 Eval Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92618983-3CAC-4307-983A-2A6358F4C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863172E-37EB-4B14-BF9F-A4867808D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2AE4D6-9ACB-497A-BC81-0BF2F4F78579}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EE2AE4D6-9ACB-497A-BC81-0BF2F4F78579}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM - MCP33151 Eval Board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -528,36 +528,6 @@
   </si>
   <si>
     <t>Quantity (3 boards)</t>
-  </si>
-  <si>
-    <t>Needs ordering?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>In cart?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>replace with 220R</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Use 22uF for higher voltage</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Only ordered 45</t>
-  </si>
-  <si>
-    <t>0805</t>
   </si>
 </sst>
 </file>
@@ -614,20 +584,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -650,6 +629,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -730,6 +719,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -920,81 +919,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1320,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3879854-7578-4628-B69C-732F5E081960}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1262,7 @@
     <col min="5" max="5" width="15.77734375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
@@ -1363,15 +1292,6 @@
       <c r="H1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1393,12 +1313,7 @@
         <f>G2*3</f>
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1420,12 +1335,6 @@
         <f t="shared" ref="H3:H64" si="0">G3*3</f>
         <v>129</v>
       </c>
-      <c r="I3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1447,15 +1356,6 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1477,12 +1377,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1504,12 +1398,6 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1531,12 +1419,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1558,12 +1440,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1585,12 +1461,6 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1612,15 +1482,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.01</v>
-      </c>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1642,15 +1504,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.01</v>
-      </c>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1675,12 +1529,6 @@
       <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1703,12 +1551,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1730,12 +1572,6 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1757,12 +1593,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1784,12 +1614,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I16" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1811,15 +1635,6 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I17" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1841,12 +1656,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I18" t="s">
-        <v>164</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1868,12 +1677,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I19" t="s">
-        <v>164</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1895,12 +1698,6 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I20" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1922,12 +1719,6 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1949,15 +1740,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1979,12 +1762,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I23" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -2006,12 +1783,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I24" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -2033,12 +1804,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I25" t="s">
-        <v>164</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -2060,12 +1825,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I26" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -2087,12 +1846,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J27" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2114,12 +1867,6 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I28" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -2141,12 +1888,6 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I29" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -2168,12 +1909,6 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I30" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -2195,12 +1930,6 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -2222,14 +1951,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -2249,14 +1972,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I33" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
@@ -2276,14 +1993,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I34" t="s">
-        <v>166</v>
-      </c>
-      <c r="J34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -2303,14 +2014,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I35" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -2330,14 +2035,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I36" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2357,14 +2056,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I37" t="s">
-        <v>166</v>
-      </c>
-      <c r="J37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2384,14 +2077,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -2411,14 +2098,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I39" t="s">
-        <v>166</v>
-      </c>
-      <c r="J39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -2438,14 +2119,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I40" t="s">
-        <v>166</v>
-      </c>
-      <c r="J40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
@@ -2465,14 +2140,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
@@ -2492,14 +2161,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I42" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -2519,14 +2182,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I43" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2546,14 +2203,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I44" t="s">
-        <v>164</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>101</v>
       </c>
@@ -2573,14 +2224,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I45" t="s">
-        <v>164</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>103</v>
       </c>
@@ -2600,17 +2245,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I46" t="s">
-        <v>164</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>105</v>
       </c>
@@ -2630,14 +2266,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I47" t="s">
-        <v>166</v>
-      </c>
-      <c r="J47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>74</v>
       </c>
@@ -2657,14 +2287,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I48" t="s">
-        <v>164</v>
-      </c>
-      <c r="J48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>108</v>
       </c>
@@ -2684,14 +2308,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I49" t="s">
-        <v>166</v>
-      </c>
-      <c r="J49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>110</v>
       </c>
@@ -2711,14 +2329,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I50" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2742,14 +2354,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I51" t="s">
-        <v>166</v>
-      </c>
-      <c r="J51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -2773,14 +2379,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I52" t="s">
-        <v>166</v>
-      </c>
-      <c r="J52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -2804,14 +2404,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I53" t="s">
-        <v>166</v>
-      </c>
-      <c r="J53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -2835,14 +2429,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I54" t="s">
-        <v>166</v>
-      </c>
-      <c r="J54" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -2866,14 +2454,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I55" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>131</v>
       </c>
@@ -2897,14 +2479,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I56" t="s">
-        <v>166</v>
-      </c>
-      <c r="J56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>134</v>
       </c>
@@ -2924,14 +2500,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I57" t="s">
-        <v>164</v>
-      </c>
-      <c r="J57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -2955,14 +2525,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I58" t="s">
-        <v>166</v>
-      </c>
-      <c r="J58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
@@ -2986,14 +2550,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I59" t="s">
-        <v>164</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
@@ -3017,14 +2575,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I60" t="s">
-        <v>166</v>
-      </c>
-      <c r="J60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>148</v>
       </c>
@@ -3048,14 +2600,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I61" t="s">
-        <v>166</v>
-      </c>
-      <c r="J61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -3079,14 +2625,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I62" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>155</v>
       </c>
@@ -3110,14 +2650,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I63" t="s">
-        <v>166</v>
-      </c>
-      <c r="J63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>158</v>
       </c>
@@ -3141,147 +2675,141 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I64" t="s">
-        <v>166</v>
-      </c>
-      <c r="J64" t="s">
-        <v>166</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I1048576 J12 J59">
-    <cfRule type="containsText" dxfId="1" priority="34" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="30" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J46)))</formula>
     </cfRule>
   </conditionalFormatting>
